--- a/JupyterNotebooks/AveragedIntensites/alpha2F-HW25.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/alpha2F-HW25.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="alpha2F-HW25.xpc" sheetId="1" r:id="rId1"/>
+    <sheet name="alpha2F" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -952,7 +952,7 @@
         <v>0.9954768681310968</v>
       </c>
       <c r="D13">
-        <v>0.9951749546634754</v>
+        <v>0.9951749546634753</v>
       </c>
       <c r="E13">
         <v>0.9952837279701908</v>
@@ -970,10 +970,10 @@
         <v>0.9948705154243894</v>
       </c>
       <c r="J13">
-        <v>0.9951749546634754</v>
+        <v>0.9951749546634753</v>
       </c>
       <c r="K13">
-        <v>0.9952293413168332</v>
+        <v>0.995229341316833</v>
       </c>
       <c r="L13">
         <v>0.995353104723965</v>

--- a/JupyterNotebooks/AveragedIntensites/alpha2F-HW25.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/alpha2F-HW25.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>HKL</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1064,6 +1064,47 @@
         <v>0.9939811582646021</v>
       </c>
     </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>0.987341780766807</v>
+      </c>
+      <c r="D16">
+        <v>1.070916661296198</v>
+      </c>
+      <c r="E16">
+        <v>0.9739138526456652</v>
+      </c>
+      <c r="F16">
+        <v>0.987341780766807</v>
+      </c>
+      <c r="G16">
+        <v>1.033966248719508</v>
+      </c>
+      <c r="H16">
+        <v>0.9478199508561423</v>
+      </c>
+      <c r="I16">
+        <v>0.9738484867596405</v>
+      </c>
+      <c r="J16">
+        <v>1.070916661296198</v>
+      </c>
+      <c r="K16">
+        <v>1.022415256970931</v>
+      </c>
+      <c r="L16">
+        <v>1.004878518868869</v>
+      </c>
+      <c r="M16">
+        <v>0.9979678301739935</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/JupyterNotebooks/AveragedIntensites/alpha2F-HW25.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/alpha2F-HW25.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>HKL</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
+  </si>
+  <si>
+    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
@@ -498,37 +501,37 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1069,7 +1072,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16">
         <v>0.987341780766807</v>

--- a/JupyterNotebooks/AveragedIntensites/alpha2F-HW25.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/alpha2F-HW25.xlsx
@@ -955,7 +955,7 @@
         <v>0.9954768681310968</v>
       </c>
       <c r="D13">
-        <v>0.9951749546634753</v>
+        <v>0.9951749546634754</v>
       </c>
       <c r="E13">
         <v>0.9952837279701908</v>
@@ -973,10 +973,10 @@
         <v>0.9948705154243894</v>
       </c>
       <c r="J13">
-        <v>0.9951749546634753</v>
+        <v>0.9951749546634754</v>
       </c>
       <c r="K13">
-        <v>0.995229341316833</v>
+        <v>0.9952293413168332</v>
       </c>
       <c r="L13">
         <v>0.995353104723965</v>

--- a/JupyterNotebooks/AveragedIntensites/alpha2F-HW25.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/alpha2F-HW25.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>HKL</t>
   </si>
@@ -40,6 +40,18 @@
     <t>Ring Perpendicular to TD</t>
   </si>
   <si>
+    <t>Gaussian-Quadrature</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-15rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-3space</t>
+  </si>
+  <si>
     <t>NoRotation-tilt60deg</t>
   </si>
   <si>
@@ -56,9 +68,6 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
-  </si>
-  <si>
-    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
@@ -449,7 +458,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -501,37 +510,37 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -829,37 +838,37 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.8821999999999991</v>
+        <v>0.987341780766807</v>
       </c>
       <c r="D10">
-        <v>1.218347999999999</v>
+        <v>1.070916661296198</v>
       </c>
       <c r="E10">
-        <v>0.9647959999999998</v>
+        <v>0.9739138526456652</v>
       </c>
       <c r="F10">
-        <v>0.8821999999999991</v>
+        <v>0.987341780766807</v>
       </c>
       <c r="G10">
-        <v>1.110563999999999</v>
+        <v>1.033966248719508</v>
       </c>
       <c r="H10">
-        <v>0.9122600000000021</v>
+        <v>0.9478199508561423</v>
       </c>
       <c r="I10">
-        <v>0.9383679999999996</v>
+        <v>0.9738484867596405</v>
       </c>
       <c r="J10">
-        <v>1.218347999999999</v>
+        <v>1.070916661296198</v>
       </c>
       <c r="K10">
-        <v>1.091572</v>
+        <v>1.022415256970931</v>
       </c>
       <c r="L10">
-        <v>0.9868859999999994</v>
+        <v>1.004878518868869</v>
       </c>
       <c r="M10">
-        <v>1.004422666666666</v>
+        <v>0.9979678301739935</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -870,37 +879,37 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.89</v>
+        <v>0.9533056255613001</v>
       </c>
       <c r="D11">
-        <v>1.26</v>
+        <v>0.8997808089596746</v>
       </c>
       <c r="E11">
-        <v>0.9399999999999999</v>
+        <v>1.053261383170625</v>
       </c>
       <c r="F11">
-        <v>0.89</v>
+        <v>0.9533056255613001</v>
       </c>
       <c r="G11">
-        <v>1.16</v>
+        <v>0.9082274879645752</v>
       </c>
       <c r="H11">
-        <v>0.8100000000000001</v>
+        <v>1.189550588211597</v>
       </c>
       <c r="I11">
-        <v>0.92</v>
+        <v>1.024995820791573</v>
       </c>
       <c r="J11">
-        <v>1.26</v>
+        <v>0.8997808089596746</v>
       </c>
       <c r="K11">
-        <v>1.1</v>
+        <v>0.9765210960651497</v>
       </c>
       <c r="L11">
-        <v>0.995</v>
+        <v>0.9649133608132248</v>
       </c>
       <c r="M11">
-        <v>0.9966666666666667</v>
+        <v>1.00485361910989</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -911,37 +920,37 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9335355934719965</v>
+        <v>0.9529582186712592</v>
       </c>
       <c r="D12">
-        <v>1.150379368448001</v>
+        <v>0.9016437170161353</v>
       </c>
       <c r="E12">
-        <v>0.963084564684801</v>
+        <v>1.05275490519701</v>
       </c>
       <c r="F12">
-        <v>0.9335355934719965</v>
+        <v>0.9529582186712592</v>
       </c>
       <c r="G12">
-        <v>1.0912783244288</v>
+        <v>0.9092857920413957</v>
       </c>
       <c r="H12">
-        <v>0.8878210219008001</v>
+        <v>1.188165304545431</v>
       </c>
       <c r="I12">
-        <v>0.9518712653824032</v>
+        <v>1.024539653570043</v>
       </c>
       <c r="J12">
-        <v>1.150379368448001</v>
+        <v>0.9016437170161353</v>
       </c>
       <c r="K12">
-        <v>1.056731966566401</v>
+        <v>0.9771993111065724</v>
       </c>
       <c r="L12">
-        <v>0.9951337800191986</v>
+        <v>0.9650787648889158</v>
       </c>
       <c r="M12">
-        <v>0.9963283563861335</v>
+        <v>1.004891265173545</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -952,37 +961,37 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9954768681310968</v>
+        <v>0.9530668775411539</v>
       </c>
       <c r="D13">
-        <v>0.9951749546634754</v>
+        <v>0.9004207799583254</v>
       </c>
       <c r="E13">
-        <v>0.9952837279701908</v>
+        <v>1.053150167534596</v>
       </c>
       <c r="F13">
-        <v>0.9954768681310968</v>
+        <v>0.9530668775411539</v>
       </c>
       <c r="G13">
-        <v>0.9960700444597914</v>
+        <v>0.9085191235056622</v>
       </c>
       <c r="H13">
-        <v>0.9952535654725024</v>
+        <v>1.189347633047062</v>
       </c>
       <c r="I13">
-        <v>0.9948705154243894</v>
+        <v>1.024861025659839</v>
       </c>
       <c r="J13">
-        <v>0.9951749546634754</v>
+        <v>0.9004207799583254</v>
       </c>
       <c r="K13">
-        <v>0.9952293413168332</v>
+        <v>0.9767854737464607</v>
       </c>
       <c r="L13">
-        <v>0.995353104723965</v>
+        <v>0.9649261756438072</v>
       </c>
       <c r="M13">
-        <v>0.995354946020241</v>
+        <v>1.00489426787444</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -993,37 +1002,37 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.004205109546545</v>
+        <v>0.8821999999999991</v>
       </c>
       <c r="D14">
-        <v>0.9820521431367343</v>
+        <v>1.218347999999999</v>
       </c>
       <c r="E14">
-        <v>0.994774092356647</v>
+        <v>0.9647959999999998</v>
       </c>
       <c r="F14">
-        <v>1.004205109546545</v>
+        <v>0.8821999999999991</v>
       </c>
       <c r="G14">
-        <v>0.989561875549096</v>
+        <v>1.110563999999999</v>
       </c>
       <c r="H14">
-        <v>0.9955530726126637</v>
+        <v>0.9122600000000021</v>
       </c>
       <c r="I14">
-        <v>0.9975383976290026</v>
+        <v>0.9383679999999996</v>
       </c>
       <c r="J14">
-        <v>0.9820521431367343</v>
+        <v>1.218347999999999</v>
       </c>
       <c r="K14">
-        <v>0.9884131177466906</v>
+        <v>1.091572</v>
       </c>
       <c r="L14">
-        <v>0.9963091136466177</v>
+        <v>0.9868859999999994</v>
       </c>
       <c r="M14">
-        <v>0.9939474484717815</v>
+        <v>1.004422666666666</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1034,37 +1043,37 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.002230528697011</v>
+        <v>0.89</v>
       </c>
       <c r="D15">
-        <v>0.9605750612519224</v>
+        <v>1.26</v>
       </c>
       <c r="E15">
-        <v>1.003806260588825</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F15">
-        <v>1.002230528697011</v>
+        <v>0.89</v>
       </c>
       <c r="G15">
-        <v>0.977218839198675</v>
+        <v>1.16</v>
       </c>
       <c r="H15">
-        <v>1.016123815942598</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="I15">
-        <v>1.003932443908582</v>
+        <v>0.92</v>
       </c>
       <c r="J15">
-        <v>0.9605750612519224</v>
+        <v>1.26</v>
       </c>
       <c r="K15">
-        <v>0.9821906609203737</v>
+        <v>1.1</v>
       </c>
       <c r="L15">
-        <v>0.9922105948086921</v>
+        <v>0.995</v>
       </c>
       <c r="M15">
-        <v>0.9939811582646021</v>
+        <v>0.9966666666666667</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1075,37 +1084,160 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.987341780766807</v>
+        <v>0.9335355934719965</v>
       </c>
       <c r="D16">
-        <v>1.070916661296198</v>
+        <v>1.150379368448001</v>
       </c>
       <c r="E16">
-        <v>0.9739138526456652</v>
+        <v>0.963084564684801</v>
       </c>
       <c r="F16">
-        <v>0.987341780766807</v>
+        <v>0.9335355934719965</v>
       </c>
       <c r="G16">
-        <v>1.033966248719508</v>
+        <v>1.0912783244288</v>
       </c>
       <c r="H16">
-        <v>0.9478199508561423</v>
+        <v>0.8878210219008001</v>
       </c>
       <c r="I16">
-        <v>0.9738484867596405</v>
+        <v>0.9518712653824032</v>
       </c>
       <c r="J16">
-        <v>1.070916661296198</v>
+        <v>1.150379368448001</v>
       </c>
       <c r="K16">
-        <v>1.022415256970931</v>
+        <v>1.056731966566401</v>
       </c>
       <c r="L16">
-        <v>1.004878518868869</v>
+        <v>0.9951337800191986</v>
       </c>
       <c r="M16">
-        <v>0.9979678301739935</v>
+        <v>0.9963283563861335</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>0.9954768681310968</v>
+      </c>
+      <c r="D17">
+        <v>0.9951749546634753</v>
+      </c>
+      <c r="E17">
+        <v>0.9952837279701908</v>
+      </c>
+      <c r="F17">
+        <v>0.9954768681310968</v>
+      </c>
+      <c r="G17">
+        <v>0.9960700444597914</v>
+      </c>
+      <c r="H17">
+        <v>0.9952535654725024</v>
+      </c>
+      <c r="I17">
+        <v>0.9948705154243894</v>
+      </c>
+      <c r="J17">
+        <v>0.9951749546634753</v>
+      </c>
+      <c r="K17">
+        <v>0.995229341316833</v>
+      </c>
+      <c r="L17">
+        <v>0.995353104723965</v>
+      </c>
+      <c r="M17">
+        <v>0.995354946020241</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>1.004205109546545</v>
+      </c>
+      <c r="D18">
+        <v>0.9820521431367343</v>
+      </c>
+      <c r="E18">
+        <v>0.994774092356647</v>
+      </c>
+      <c r="F18">
+        <v>1.004205109546545</v>
+      </c>
+      <c r="G18">
+        <v>0.989561875549096</v>
+      </c>
+      <c r="H18">
+        <v>0.9955530726126637</v>
+      </c>
+      <c r="I18">
+        <v>0.9975383976290026</v>
+      </c>
+      <c r="J18">
+        <v>0.9820521431367343</v>
+      </c>
+      <c r="K18">
+        <v>0.9884131177466906</v>
+      </c>
+      <c r="L18">
+        <v>0.9963091136466177</v>
+      </c>
+      <c r="M18">
+        <v>0.9939474484717815</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>1.002230528697011</v>
+      </c>
+      <c r="D19">
+        <v>0.9605750612519224</v>
+      </c>
+      <c r="E19">
+        <v>1.003806260588825</v>
+      </c>
+      <c r="F19">
+        <v>1.002230528697011</v>
+      </c>
+      <c r="G19">
+        <v>0.977218839198675</v>
+      </c>
+      <c r="H19">
+        <v>1.016123815942598</v>
+      </c>
+      <c r="I19">
+        <v>1.003932443908582</v>
+      </c>
+      <c r="J19">
+        <v>0.9605750612519224</v>
+      </c>
+      <c r="K19">
+        <v>0.9821906609203737</v>
+      </c>
+      <c r="L19">
+        <v>0.9922105948086921</v>
+      </c>
+      <c r="M19">
+        <v>0.9939811582646021</v>
       </c>
     </row>
   </sheetData>
